--- a/data/trans_dic/P16A_n_R3-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16A_n_R3-Provincia-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.02525221517889642</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.02882980584644593</v>
+        <v>0.02882980584644592</v>
       </c>
     </row>
     <row r="5">
@@ -711,37 +711,37 @@
         <v>0</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.006766962204834996</v>
+        <v>0.006585259796053078</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.006820916846471325</v>
+        <v>0.008554382796641686</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.009869873285855818</v>
+        <v>0.009337862559299397</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.01261299286732373</v>
+        <v>0.0120103933707122</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.0138183917870883</v>
+        <v>0.01040758808580696</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.0143449092031161</v>
+        <v>0.01460285936824958</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.02249915310374277</v>
+        <v>0.02126783652268412</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.008326861355341435</v>
+        <v>0.008444940912812464</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.01379388421734967</v>
+        <v>0.01382992404159092</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.01497924875817651</v>
+        <v>0.01415918349302008</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.01964869585276995</v>
+        <v>0.01959556070139454</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.0190271289725672</v>
+        <v>0.02167335975846558</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.05224234886196395</v>
+        <v>0.05177343821998519</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.03661254878710862</v>
+        <v>0.0386199324594154</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.03915451438333833</v>
+        <v>0.03753738553362513</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.05654307764024021</v>
+        <v>0.0555627733243611</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.05527078639437039</v>
+        <v>0.05256928628368383</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.05514993473204986</v>
+        <v>0.05630218385580432</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.05340336899894128</v>
+        <v>0.05115821514000982</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.03417846787784885</v>
+        <v>0.03091257401033183</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.04252417604854903</v>
+        <v>0.04332382770845963</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.04199073183464965</v>
+        <v>0.04062522174041199</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.04091285596384762</v>
+        <v>0.04127037188759266</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.01562530202278585</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.03676826330011617</v>
+        <v>0.03676826330011618</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.03968756295739197</v>
@@ -833,7 +833,7 @@
         <v>0.02447714682913601</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.05524888433781619</v>
+        <v>0.05524888433781618</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.004211698698814346</v>
+        <v>0.005888339964398827</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.02006937250989399</v>
+        <v>0.02278878198238451</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.007616799631978954</v>
+        <v>0.007531600253735881</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.02076570388267686</v>
+        <v>0.02181948467098009</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.024317802149672</v>
+        <v>0.02612636963897602</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.04586048368622984</v>
+        <v>0.04458087424961337</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.01814787642741545</v>
+        <v>0.01868497655600077</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.05627482511246937</v>
+        <v>0.05705694619151293</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.0171135931676571</v>
+        <v>0.01792975804787836</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.03808571959798775</v>
+        <v>0.03907683946356106</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.01572214751041394</v>
+        <v>0.01580182313362906</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.04295830500836448</v>
+        <v>0.04410106446062449</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.02672543607493253</v>
+        <v>0.02549407352891687</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.06194096291429242</v>
+        <v>0.06293968394171155</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.03018516116706597</v>
+        <v>0.02990477700338466</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.05838633654376178</v>
+        <v>0.05944331468573157</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.05997909713559407</v>
+        <v>0.06213369284081565</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.09460078342243811</v>
+        <v>0.08910827247039581</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.05163852138121165</v>
+        <v>0.05227910346536665</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.09302309791252901</v>
+        <v>0.09587136548236731</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.03719264483127432</v>
+        <v>0.03781364001054808</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.06701714250234225</v>
+        <v>0.06962502816101362</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.03631607479431867</v>
+        <v>0.03664534795696223</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.06828977254207717</v>
+        <v>0.06916487249500185</v>
       </c>
     </row>
     <row r="10">
@@ -989,29 +989,29 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.04801890055146875</v>
+        <v>0.04923860704729304</v>
       </c>
       <c r="G11" s="5" t="inlineStr"/>
       <c r="H11" s="5" t="n">
-        <v>0.00600475535407829</v>
+        <v>0.006296369247268249</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.006144730296623476</v>
+        <v>0.008606941000169907</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1085727272159665</v>
+        <v>0.1105106738212455</v>
       </c>
       <c r="K11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.003256624860776176</v>
+        <v>0.003326534448312624</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.005590883768418195</v>
+        <v>0.005419963045720316</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.08577614717029691</v>
+        <v>0.08780476968125356</v>
       </c>
     </row>
     <row r="12">
@@ -1022,38 +1022,38 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.01812463381299061</v>
+        <v>0.01803971436717423</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.01788128287169086</v>
+        <v>0.01472117061184459</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.01706895947009865</v>
+        <v>0.01483904757344106</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.09587611650768106</v>
+        <v>0.09826772565567417</v>
       </c>
       <c r="G12" s="5" t="inlineStr"/>
       <c r="H12" s="5" t="n">
-        <v>0.03515027343967238</v>
+        <v>0.03398642612086689</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.04146100793335333</v>
+        <v>0.0407128926783478</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1634653926462846</v>
+        <v>0.1630661152688179</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.007272282729527229</v>
+        <v>0.007298246854196857</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.01905037038434186</v>
+        <v>0.02099559458702318</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.02390083921596359</v>
+        <v>0.02402130568657762</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1241970329770243</v>
+        <v>0.1254364280545325</v>
       </c>
     </row>
     <row r="13">
@@ -1089,7 +1089,7 @@
         <v>0.07406411196230751</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.07299322421706125</v>
+        <v>0.07299322421706127</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.01449923670594518</v>
@@ -1101,7 +1101,7 @@
         <v>0.0498751431811948</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.06356437892246571</v>
+        <v>0.06356437892246569</v>
       </c>
     </row>
     <row r="14">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.002347579629638611</v>
+        <v>0.002336451155591232</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.003178526544419415</v>
+        <v>0.003088193623427328</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01168115246173734</v>
+        <v>0.01213488092013593</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.03447912943772054</v>
+        <v>0.03523528709688464</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.01052813867595448</v>
+        <v>0.009870560184275541</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.05432257933758077</v>
+        <v>0.05408349694124401</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.05095106857954352</v>
+        <v>0.04901497051135075</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.05687190337772716</v>
+        <v>0.05607605232989014</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.007663388852851965</v>
+        <v>0.007362820156009797</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.03330445630658534</v>
+        <v>0.03284229261234072</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.03552372565481089</v>
+        <v>0.03688992200830928</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.05051258231588875</v>
+        <v>0.05108802508928876</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.01966371769810828</v>
+        <v>0.02135164550443326</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.02947107738872423</v>
+        <v>0.02859509061652093</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.0409236291567214</v>
+        <v>0.04305335190514747</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.08262894891569961</v>
+        <v>0.08127026683952607</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.04203597772199628</v>
+        <v>0.04175964212855672</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1078904647083012</v>
+        <v>0.1098403587192964</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1076036813502205</v>
+        <v>0.1058984211220741</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.0910231203171508</v>
+        <v>0.09443580898399154</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.02464708571529211</v>
+        <v>0.02427451238450945</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.06487345907564812</v>
+        <v>0.06280257269780733</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.06780503768046495</v>
+        <v>0.06936314215080291</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.07830071312167917</v>
+        <v>0.0799597879774427</v>
       </c>
     </row>
     <row r="16">
@@ -1237,7 +1237,7 @@
         <v>0.03089028113831914</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.09618489432287831</v>
+        <v>0.0961848943228783</v>
       </c>
     </row>
     <row r="17">
@@ -1251,37 +1251,37 @@
         <v>0</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.0209557978976102</v>
+        <v>0.02098979862950205</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.003862603289791323</v>
+        <v>0.003825981022782225</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.0376574700833358</v>
+        <v>0.0378466217494824</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.005812404023942693</v>
+        <v>0.004793801675561334</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1030250100016507</v>
+        <v>0.09763302341819012</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.02489051891276922</v>
+        <v>0.02338104513373486</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1049639035346101</v>
+        <v>0.1050413199936505</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.004476834704475608</v>
+        <v>0.004474730976407159</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.07009562760102075</v>
+        <v>0.07150951446204223</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.01718430489593941</v>
+        <v>0.01796315111642996</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.07883298588700322</v>
+        <v>0.07893575966440051</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.01884614209139933</v>
+        <v>0.0219654768247788</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.08520381197706435</v>
+        <v>0.08184664457707057</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.03635514663237232</v>
+        <v>0.03732679215109527</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.08535344670720564</v>
+        <v>0.09041347832113596</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.04831409142328839</v>
+        <v>0.05004984552344008</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2028230918139668</v>
+        <v>0.1931182129895881</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.08376313855561981</v>
+        <v>0.08504923379596847</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.15870193031956</v>
+        <v>0.1621278875778017</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.02707970159690057</v>
+        <v>0.02735050154433612</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1260479695586355</v>
+        <v>0.1284330168537229</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.05095195661725619</v>
+        <v>0.05241841695358022</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.115797280377157</v>
+        <v>0.1162668986203426</v>
       </c>
     </row>
     <row r="19">
@@ -1349,7 +1349,7 @@
         <v>0.02428423893675312</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.09998063615501691</v>
+        <v>0.09998063615501693</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.01093580928836325</v>
@@ -1361,7 +1361,7 @@
         <v>0.06136886624132847</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.131015143997401</v>
+        <v>0.1310151439974009</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.008753783185473559</v>
@@ -1390,34 +1390,34 @@
         <v>0</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.009796839579926643</v>
+        <v>0.01025634629635906</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.07505831616046767</v>
+        <v>0.0762738543367775</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.003263156330199506</v>
+        <v>0.003285179936909401</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.007851592457560421</v>
+        <v>0.007864305714243113</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.03466593667500519</v>
+        <v>0.03483198034044824</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.1039580997042444</v>
+        <v>0.104490235458166</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.003326915186660207</v>
+        <v>0.003337947015236575</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.00725073071483521</v>
+        <v>0.006753239063737057</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.02820565987534349</v>
+        <v>0.02799626538737652</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.09562554182524299</v>
+        <v>0.09478687839045534</v>
       </c>
     </row>
     <row r="21">
@@ -1428,40 +1428,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.02541225265337492</v>
+        <v>0.02271620940164504</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.02603418375070263</v>
+        <v>0.02555738821457447</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.0487397313441395</v>
+        <v>0.04551824012194605</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.1300123262431408</v>
+        <v>0.1320917135251287</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.03007527378811386</v>
+        <v>0.02910338925967013</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.04697105704841</v>
+        <v>0.04526149826993733</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.09494958149002823</v>
+        <v>0.09933270033626819</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.1632750444451809</v>
+        <v>0.1584138483529522</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.02084777021924681</v>
+        <v>0.01887213846076359</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.02931102657387189</v>
+        <v>0.02756171172991849</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.06406915023713397</v>
+        <v>0.06494415037700416</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.1350293742551135</v>
+        <v>0.1361240889370208</v>
       </c>
     </row>
     <row r="22">
@@ -1520,40 +1520,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.01147736977265083</v>
+        <v>0.01149481756879276</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.007374935726420331</v>
+        <v>0.006197753081175733</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.01517800930461548</v>
+        <v>0.01435834032003099</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.02295640641351744</v>
+        <v>0.02350320170888665</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.01060481266036318</v>
+        <v>0.01036924267810559</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.01707512450132736</v>
+        <v>0.01799827295429409</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.02033302872789318</v>
+        <v>0.01996173097102533</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.09033772279597399</v>
+        <v>0.09077981991583048</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.0138020976830711</v>
+        <v>0.01372389347312507</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.01451043901448424</v>
+        <v>0.01440269856992777</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.02005134709950981</v>
+        <v>0.02022043818269165</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.06116299060540586</v>
+        <v>0.06116924304166615</v>
       </c>
     </row>
     <row r="24">
@@ -1564,40 +1564,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.03659455760329955</v>
+        <v>0.03583952011192584</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.02888557452324603</v>
+        <v>0.02723960108516825</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.04209361014314506</v>
+        <v>0.04054691367621428</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.04892538580051341</v>
+        <v>0.04928892883995381</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.03212188305269666</v>
+        <v>0.03203542594307922</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.04279424610532798</v>
+        <v>0.04289432526028085</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.04993425235893956</v>
+        <v>0.04962386218082839</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.1274754182210636</v>
+        <v>0.1287938324792683</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.03035404992362975</v>
+        <v>0.03038257192695579</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.03129490611840859</v>
+        <v>0.0308140095816858</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.04014593542233139</v>
+        <v>0.04163428835636993</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.08659253929225455</v>
+        <v>0.08414983152418432</v>
       </c>
     </row>
     <row r="25">
@@ -1633,7 +1633,7 @@
         <v>0.05099517345026616</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>0.09411935662402811</v>
+        <v>0.09411935662402814</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>0.03472706937682402</v>
@@ -1656,40 +1656,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.01758104717869111</v>
+        <v>0.01820929635059275</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.005073045332983544</v>
+        <v>0.004165536808370996</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.00323068711554025</v>
+        <v>0.00332643675744184</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.03466329067004876</v>
+        <v>0.03329852258110971</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.02777777369447815</v>
+        <v>0.02712084432057983</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.03773022166069828</v>
+        <v>0.03860103081639573</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.03573242656269042</v>
+        <v>0.03577558990965554</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.07843379461244175</v>
+        <v>0.07898140634696141</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.02643193544266671</v>
+        <v>0.02557748030529686</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.02314954305710409</v>
+        <v>0.02353471333326375</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.02216818859079877</v>
+        <v>0.02146742747024755</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.05982225097767851</v>
+        <v>0.05968522993228991</v>
       </c>
     </row>
     <row r="27">
@@ -1700,40 +1700,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.04332582529561876</v>
+        <v>0.04399510317932624</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.02402713051102197</v>
+        <v>0.02162576117527968</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.01624010575619478</v>
+        <v>0.01674940415280976</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.05891200154638625</v>
+        <v>0.05942845174071187</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.05717984876920954</v>
+        <v>0.05704775268137803</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.07081810518140777</v>
+        <v>0.06911413764616429</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.06890779455939833</v>
+        <v>0.06904337658950137</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.111661535067316</v>
+        <v>0.112071691236092</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.04480654313526686</v>
+        <v>0.04556756180727096</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.04114904880445538</v>
+        <v>0.041497485735207</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.04048905260701555</v>
+        <v>0.03998984139116626</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.08191961302598355</v>
+        <v>0.08075720061707722</v>
       </c>
     </row>
     <row r="28">
@@ -1781,7 +1781,7 @@
         <v>0.03018860177585751</v>
       </c>
       <c r="N28" s="5" t="n">
-        <v>0.07208375173044687</v>
+        <v>0.07208375173044686</v>
       </c>
     </row>
     <row r="29">
@@ -1792,40 +1792,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.01122318022834878</v>
+        <v>0.01144238637360486</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.01334097054065172</v>
+        <v>0.01328310100913626</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.01270713609225152</v>
+        <v>0.01254758282162147</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.04070212654548613</v>
+        <v>0.0415612714241106</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.02045573238250396</v>
+        <v>0.02078010317046013</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.04248134640155079</v>
+        <v>0.04231144856261884</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.03701900656713414</v>
+        <v>0.03651188979855127</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.08736805592527144</v>
+        <v>0.0886627484541215</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.01669427122577981</v>
+        <v>0.01683195214914444</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.02977215403099625</v>
+        <v>0.0299025460391752</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.0259017388567377</v>
+        <v>0.0261688938662226</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.06710459366514861</v>
+        <v>0.06682238111472351</v>
       </c>
     </row>
     <row r="30">
@@ -1836,40 +1836,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.01946498160689208</v>
+        <v>0.01925800713609086</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.02341855380116064</v>
+        <v>0.02358539578053638</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.02148602713303938</v>
+        <v>0.02130844137025758</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.05400811772009118</v>
+        <v>0.05452977761981796</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.03179400011348867</v>
+        <v>0.0322062430309303</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.05779687767814759</v>
+        <v>0.05735410153037578</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.05184668401652524</v>
+        <v>0.05149443638605214</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.1026875376253002</v>
+        <v>0.1036457414574683</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.02386913079493733</v>
+        <v>0.02364799133010926</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.03937474411350065</v>
+        <v>0.03914267254379527</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.0345538006209021</v>
+        <v>0.03481505442303424</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.07715745636858799</v>
+        <v>0.07692147858433436</v>
       </c>
     </row>
     <row r="31">
@@ -2147,37 +2147,37 @@
         <v>0</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>1994</v>
+        <v>1941</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>2004</v>
+        <v>2513</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>3147</v>
+        <v>2977</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>3290</v>
+        <v>3133</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>3969</v>
+        <v>2990</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>4141</v>
+        <v>4216</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>7111</v>
+        <v>6722</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>4445</v>
+        <v>4508</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>8028</v>
+        <v>8049</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>8725</v>
+        <v>8247</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>12475</v>
+        <v>12441</v>
       </c>
     </row>
     <row r="7">
@@ -2188,40 +2188,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>5195</v>
+        <v>5917</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>15398</v>
+        <v>15260</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>10755</v>
+        <v>11345</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>12484</v>
+        <v>11969</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>14749</v>
+        <v>14493</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>15876</v>
+        <v>15100</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>15922</v>
+        <v>16255</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>16879</v>
+        <v>16169</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>18246</v>
+        <v>16503</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>24748</v>
+        <v>25214</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>24458</v>
+        <v>23663</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>25976</v>
+        <v>26203</v>
       </c>
     </row>
     <row r="8">
@@ -2324,40 +2324,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>2077</v>
+        <v>2903</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>10146</v>
+        <v>11520</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>3828</v>
+        <v>3785</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>11019</v>
+        <v>11578</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>12255</v>
+        <v>13166</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>24020</v>
+        <v>23350</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>9493</v>
+        <v>9774</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>30754</v>
+        <v>31181</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>17063</v>
+        <v>17876</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>39201</v>
+        <v>40221</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>16126</v>
+        <v>16207</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>46272</v>
+        <v>47503</v>
       </c>
     </row>
     <row r="11">
@@ -2368,40 +2368,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>13178</v>
+        <v>12570</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>31313</v>
+        <v>31818</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>15170</v>
+        <v>15029</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>30983</v>
+        <v>31543</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>30226</v>
+        <v>31312</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>49549</v>
+        <v>46672</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>27011</v>
+        <v>27346</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>50837</v>
+        <v>52393</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>37082</v>
+        <v>37701</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>68980</v>
+        <v>71664</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>37248</v>
+        <v>37586</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>73558</v>
+        <v>74500</v>
       </c>
     </row>
     <row r="12">
@@ -2513,29 +2513,29 @@
         <v>0</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>15174</v>
+        <v>15559</v>
       </c>
       <c r="G14" s="6" t="inlineStr"/>
       <c r="H14" s="6" t="n">
-        <v>2048</v>
+        <v>2147</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>2067</v>
+        <v>2895</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>38693</v>
+        <v>39384</v>
       </c>
       <c r="K14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>2166</v>
+        <v>2212</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>3661</v>
+        <v>3549</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>57674</v>
+        <v>59038</v>
       </c>
     </row>
     <row r="15">
@@ -2546,38 +2546,38 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>5779</v>
+        <v>5752</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>5794</v>
+        <v>4770</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>5438</v>
+        <v>4727</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>30296</v>
+        <v>31052</v>
       </c>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="n">
-        <v>11987</v>
+        <v>11590</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>13944</v>
+        <v>13692</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>58256</v>
+        <v>58114</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>4758</v>
+        <v>4775</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>12670</v>
+        <v>13963</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>15652</v>
+        <v>15731</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>83507</v>
+        <v>84340</v>
       </c>
     </row>
     <row r="16">
@@ -2680,40 +2680,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>1189</v>
+        <v>1155</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>4322</v>
+        <v>4489</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>12866</v>
+        <v>13148</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>3911</v>
+        <v>3666</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>21129</v>
+        <v>21036</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>19732</v>
+        <v>18983</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>23998</v>
+        <v>23662</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>5595</v>
+        <v>5376</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>25409</v>
+        <v>25056</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>26900</v>
+        <v>27935</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>40163</v>
+        <v>40620</v>
       </c>
     </row>
     <row r="19">
@@ -2724,40 +2724,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>7053</v>
+        <v>7658</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>11022</v>
+        <v>10694</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>15140</v>
+        <v>15928</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>30833</v>
+        <v>30326</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>15615</v>
+        <v>15512</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>41964</v>
+        <v>42723</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>41673</v>
+        <v>41013</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>38408</v>
+        <v>39848</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>17996</v>
+        <v>17723</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>49494</v>
+        <v>47914</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>51345</v>
+        <v>52525</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>62257</v>
+        <v>63577</v>
       </c>
     </row>
     <row r="20">
@@ -2863,37 +2863,37 @@
         <v>0</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>4456</v>
+        <v>4463</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>816</v>
+        <v>808</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>7745</v>
+        <v>7784</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>1207</v>
+        <v>996</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>22623</v>
+        <v>21439</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>5441</v>
+        <v>5111</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>24028</v>
+        <v>24046</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>30296</v>
+        <v>30907</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>7386</v>
+        <v>7721</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>34259</v>
+        <v>34304</v>
       </c>
     </row>
     <row r="23">
@@ -2904,40 +2904,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>3832</v>
+        <v>4466</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>18116</v>
+        <v>17402</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>7679</v>
+        <v>7884</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>17554</v>
+        <v>18595</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>10033</v>
+        <v>10394</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>44538</v>
+        <v>42407</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>18310</v>
+        <v>18591</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>36330</v>
+        <v>37114</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>11129</v>
+        <v>11240</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>54479</v>
+        <v>55510</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>21900</v>
+        <v>22530</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>50323</v>
+        <v>50528</v>
       </c>
     </row>
     <row r="24">
@@ -3046,34 +3046,34 @@
         <v>0</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>2578</v>
+        <v>2699</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>20319</v>
+        <v>20648</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>908</v>
+        <v>914</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>2199</v>
+        <v>2202</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>9468</v>
+        <v>9513</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>27419</v>
+        <v>27559</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>1826</v>
+        <v>1832</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>4017</v>
+        <v>3741</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>15125</v>
+        <v>15013</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>51108</v>
+        <v>50660</v>
       </c>
     </row>
     <row r="27">
@@ -3084,40 +3084,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>6882</v>
+        <v>6152</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>7133</v>
+        <v>7002</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>12825</v>
+        <v>11977</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>35195</v>
+        <v>35758</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>8365</v>
+        <v>8095</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>13153</v>
+        <v>12675</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>25932</v>
+        <v>27129</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>43064</v>
+        <v>41782</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>11444</v>
+        <v>10360</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>16239</v>
+        <v>15270</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>34356</v>
+        <v>34826</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>72167</v>
+        <v>72752</v>
       </c>
     </row>
     <row r="28">
@@ -3220,40 +3220,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>7059</v>
+        <v>7070</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>4888</v>
+        <v>4108</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>9965</v>
+        <v>9427</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>16521</v>
+        <v>16915</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>6768</v>
+        <v>6618</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>11848</v>
+        <v>12488</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>14056</v>
+        <v>13799</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>69746</v>
+        <v>70087</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>17297</v>
+        <v>17199</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>19685</v>
+        <v>19539</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>27026</v>
+        <v>27254</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>91240</v>
+        <v>91249</v>
       </c>
     </row>
     <row r="31">
@@ -3264,40 +3264,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>22507</v>
+        <v>22042</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>19145</v>
+        <v>18054</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>27637</v>
+        <v>26621</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>35211</v>
+        <v>35473</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>20501</v>
+        <v>20446</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>29693</v>
+        <v>29762</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>34519</v>
+        <v>34305</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>98418</v>
+        <v>99436</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>38041</v>
+        <v>38077</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>42456</v>
+        <v>41804</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>54111</v>
+        <v>56117</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>129174</v>
+        <v>125530</v>
       </c>
     </row>
     <row r="32">
@@ -3400,40 +3400,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>13077</v>
+        <v>13544</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>3952</v>
+        <v>3245</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>2515</v>
+        <v>2590</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>27664</v>
+        <v>26575</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>21764</v>
+        <v>21249</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>31084</v>
+        <v>31802</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>29521</v>
+        <v>29557</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>65204</v>
+        <v>65660</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>40370</v>
+        <v>39065</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>37108</v>
+        <v>37725</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>35574</v>
+        <v>34450</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>97475</v>
+        <v>97251</v>
       </c>
     </row>
     <row r="35">
@@ -3444,40 +3444,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>32226</v>
+        <v>32723</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>18719</v>
+        <v>16849</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>12644</v>
+        <v>13041</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>47016</v>
+        <v>47428</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>44801</v>
+        <v>44698</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>58344</v>
+        <v>56940</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>56929</v>
+        <v>57041</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>92828</v>
+        <v>93169</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>68433</v>
+        <v>69596</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>65960</v>
+        <v>66518</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>64975</v>
+        <v>64174</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>133480</v>
+        <v>131586</v>
       </c>
     </row>
     <row r="36">
@@ -3580,40 +3580,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>36773</v>
+        <v>37491</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>45717</v>
+        <v>45518</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>43132</v>
+        <v>42591</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>143791</v>
+        <v>146826</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>69124</v>
+        <v>70220</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>151162</v>
+        <v>150557</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>131215</v>
+        <v>129418</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>326490</v>
+        <v>331329</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>111113</v>
+        <v>112029</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>207961</v>
+        <v>208872</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>179729</v>
+        <v>181583</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>487831</v>
+        <v>485780</v>
       </c>
     </row>
     <row r="39">
@@ -3624,40 +3624,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>63778</v>
+        <v>63100</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>80250</v>
+        <v>80822</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>72931</v>
+        <v>72328</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>190798</v>
+        <v>192641</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>107438</v>
+        <v>108831</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>205659</v>
+        <v>204084</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>183773</v>
+        <v>182524</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>383739</v>
+        <v>387319</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>158867</v>
+        <v>157395</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>275036</v>
+        <v>273415</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>239765</v>
+        <v>241578</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>560913</v>
+        <v>559197</v>
       </c>
     </row>
     <row r="40">
